--- a/src/test/resources/Run_Manager_Filters.xlsx
+++ b/src/test/resources/Run_Manager_Filters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\SaknaiNewEnv\SAKANI_TST_NEW\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\SAKANI_TST_R1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B43E5C-BCFD-4B38-A583-BA63FB42A1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD66131-157B-4FCA-9F07-86F5FADB1D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="394">
   <si>
     <t>P_Key</t>
   </si>
@@ -782,6 +782,9 @@
     <t>Username</t>
   </si>
   <si>
+    <t>Aa123456@</t>
+  </si>
+  <si>
     <t>TC_01</t>
   </si>
   <si>
@@ -2665,6 +2668,9 @@
     <t>Filters_TC_62</t>
   </si>
   <si>
+    <t>1089301467</t>
+  </si>
+  <si>
     <t>الرياض - الرياض</t>
   </si>
   <si>
@@ -2758,13 +2764,10 @@
     <t>https://test-sakani.housingapps.sa</t>
   </si>
   <si>
-    <t>Smoke Test for one Mega project</t>
-  </si>
-  <si>
-    <t>V4 - Off plan land private land</t>
-  </si>
-  <si>
-    <t>Aa@123456</t>
+    <t>Mega  project Riyadh City</t>
+  </si>
+  <si>
+    <t>LAU 001,  MOH Lands</t>
   </si>
 </sst>
 </file>
@@ -3113,7 +3116,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3225,15 +3228,6 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3249,7 +3243,7 @@
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3276,12 +3270,42 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBCE997"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBCE997"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3390,9 +3414,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3430,7 +3454,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3536,7 +3560,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3678,7 +3702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3688,23 +3712,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="J51" sqref="J51:J66"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27" style="2" customWidth="1"/>
     <col min="4" max="4" width="73" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -3760,10 +3784,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="41" t="s">
@@ -3791,31 +3815,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K3" s="35">
         <v>1</v>
@@ -3830,31 +3854,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K4" s="35">
         <v>1</v>
@@ -3869,31 +3893,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K5" s="35">
         <v>1</v>
@@ -3908,31 +3932,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K6" s="35">
         <v>1</v>
@@ -3947,31 +3971,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K7" s="35">
         <v>1</v>
@@ -3986,31 +4010,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K8" s="35">
         <v>1</v>
@@ -4025,31 +4049,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H9" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K9" s="35">
         <v>1</v>
@@ -4064,31 +4088,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K10" s="35">
         <v>1</v>
@@ -4103,31 +4127,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K11" s="35">
         <v>1</v>
@@ -4142,31 +4166,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K12" s="35">
         <v>1</v>
@@ -4181,31 +4205,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H13" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K13" s="35">
         <v>1</v>
@@ -4220,31 +4244,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K14" s="35">
         <v>1</v>
@@ -4259,31 +4283,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K15" s="35">
         <v>1</v>
@@ -4298,31 +4322,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K16" s="35">
         <v>1</v>
@@ -4337,31 +4361,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K17" s="35">
         <v>1</v>
@@ -4376,31 +4400,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K18" s="35">
         <v>1</v>
@@ -4415,31 +4439,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H19" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K19" s="35">
         <v>1</v>
@@ -4454,31 +4478,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K20" s="35">
         <v>1</v>
@@ -4493,31 +4517,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K21" s="35">
         <v>1</v>
@@ -4532,31 +4556,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K22" s="35">
         <v>1</v>
@@ -4571,31 +4595,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H23" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K23" s="35">
         <v>1</v>
@@ -4610,31 +4634,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K24" s="35">
         <v>1</v>
@@ -4649,31 +4673,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H25" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K25" s="35">
         <v>1</v>
@@ -4688,31 +4712,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H26" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K26" s="35">
         <v>1</v>
@@ -4726,31 +4750,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K27" s="35">
         <v>1</v>
@@ -4764,31 +4788,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D28" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F28" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="E28" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>312</v>
-      </c>
       <c r="G28" s="37" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K28" s="35">
         <v>1</v>
@@ -4802,31 +4826,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H29" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K29" s="35">
         <v>1</v>
@@ -4840,31 +4864,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H30" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J30" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K30" s="35">
         <v>1</v>
@@ -4878,31 +4902,31 @@
         <v>29</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H31" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J31" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K31" s="35">
         <v>1</v>
@@ -4916,31 +4940,31 @@
         <v>30</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F32" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="G32" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="G32" s="37" t="s">
-        <v>311</v>
-      </c>
       <c r="H32" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K32" s="35">
         <v>1</v>
@@ -4951,13 +4975,13 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="41" t="s">
@@ -4973,7 +4997,9 @@
         <v>12</v>
       </c>
       <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
+      <c r="J33" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="K33" s="42"/>
       <c r="L33" s="46"/>
       <c r="M33" s="42"/>
@@ -4983,31 +5009,31 @@
         <v>31</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C34" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="E34" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="F34" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="G34" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="E34" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>321</v>
-      </c>
       <c r="H34" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J34" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K34" s="35">
         <v>1</v>
@@ -5021,31 +5047,31 @@
         <v>32</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H35" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J35" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K35" s="35">
         <v>1</v>
@@ -5059,31 +5085,31 @@
         <v>33</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H36" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J36" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K36" s="35">
         <v>1</v>
@@ -5097,31 +5123,31 @@
         <v>34</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H37" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K37" s="35">
         <v>1</v>
@@ -5135,31 +5161,31 @@
         <v>35</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D38" s="50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H38" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J38" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K38" s="35">
         <v>1</v>
@@ -5173,31 +5199,31 @@
         <v>36</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H39" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I39" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J39" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K39" s="35">
         <v>1</v>
@@ -5211,31 +5237,31 @@
         <v>37</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H40" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J40" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K40" s="35">
         <v>1</v>
@@ -5249,31 +5275,31 @@
         <v>38</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H41" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I41" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J41" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K41" s="35">
         <v>1</v>
@@ -5287,31 +5313,31 @@
         <v>39</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H42" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I42" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J42" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K42" s="35">
         <v>1</v>
@@ -5325,31 +5351,31 @@
         <v>40</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H43" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I43" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J43" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K43" s="35">
         <v>1</v>
@@ -5363,31 +5389,31 @@
         <v>41</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H44" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I44" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J44" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K44" s="35">
         <v>1</v>
@@ -5401,31 +5427,31 @@
         <v>42</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H45" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I45" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J45" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K45" s="35">
         <v>1</v>
@@ -5439,31 +5465,31 @@
         <v>43</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H46" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J46" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K46" s="35">
         <v>1</v>
@@ -5477,31 +5503,31 @@
         <v>44</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D47" s="54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H47" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J47" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K47" s="35">
         <v>1</v>
@@ -5515,31 +5541,31 @@
         <v>45</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G48" s="37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H48" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J48" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K48" s="35">
         <v>1</v>
@@ -5553,31 +5579,31 @@
         <v>46</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D49" s="54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K49" s="35">
         <v>1</v>
@@ -5588,13 +5614,13 @@
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D50" s="40"/>
       <c r="E50" s="41" t="s">
@@ -5610,7 +5636,9 @@
         <v>12</v>
       </c>
       <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
+      <c r="J50" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="K50" s="42"/>
       <c r="L50" s="46"/>
       <c r="M50" s="42"/>
@@ -5620,28 +5648,28 @@
         <v>47</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C51" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="E51" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="F51" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="G51" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="E51" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>342</v>
-      </c>
       <c r="H51" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J51" s="38" t="s">
         <v>42</v>
@@ -5658,28 +5686,28 @@
         <v>48</v>
       </c>
       <c r="B52" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D52" s="54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H52" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J52" s="38" t="s">
         <v>42</v>
@@ -5696,28 +5724,28 @@
         <v>49</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I53" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J53" s="38" t="s">
         <v>42</v>
@@ -5734,28 +5762,28 @@
         <v>50</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D54" s="50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H54" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J54" s="38" t="s">
         <v>42</v>
@@ -5772,28 +5800,28 @@
         <v>51</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D55" s="50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H55" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I55" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J55" s="38" t="s">
         <v>42</v>
@@ -5810,28 +5838,28 @@
         <v>52</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C56" s="50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H56" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I56" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J56" s="38" t="s">
         <v>42</v>
@@ -5848,28 +5876,28 @@
         <v>53</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D57" s="50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H57" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I57" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J57" s="38" t="s">
         <v>42</v>
@@ -5886,28 +5914,28 @@
         <v>54</v>
       </c>
       <c r="B58" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D58" s="50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H58" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I58" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>42</v>
@@ -5924,28 +5952,28 @@
         <v>55</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H59" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I59" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J59" s="38" t="s">
         <v>42</v>
@@ -5962,28 +5990,28 @@
         <v>56</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D60" s="50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F60" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H60" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I60" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J60" s="38" t="s">
         <v>42</v>
@@ -6000,28 +6028,28 @@
         <v>57</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D61" s="53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H61" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I61" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J61" s="38" t="s">
         <v>42</v>
@@ -6038,28 +6066,28 @@
         <v>58</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D62" s="54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G62" s="37" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H62" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I62" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J62" s="38" t="s">
         <v>42</v>
@@ -6076,28 +6104,28 @@
         <v>59</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C63" s="54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D63" s="54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H63" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I63" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>42</v>
@@ -6114,28 +6142,28 @@
         <v>60</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C64" s="54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D64" s="54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H64" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I64" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J64" s="38" t="s">
         <v>42</v>
@@ -6152,28 +6180,28 @@
         <v>61</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D65" s="54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F65" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G65" s="37" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H65" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I65" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J65" s="38" t="s">
         <v>42</v>
@@ -6190,28 +6218,28 @@
         <v>62</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C66" s="54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D66" s="54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F66" s="37" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H66" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J66" s="38" t="s">
         <v>42</v>
@@ -6227,27 +6255,43 @@
   <autoFilter ref="A1:L25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="5" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="367"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F1">
+    <cfRule type="duplicateValues" dxfId="8" priority="373"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J32">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:J49">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F1">
-    <cfRule type="duplicateValues" dxfId="2" priority="373"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J32 J34:J49 J51:J66">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+  <conditionalFormatting sqref="J51:J66">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J32 J34:J49 J51:J66" xr:uid="{5653054A-31BE-44E7-A7E2-3C79ECC9C177}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J51:J66 J3:J32 J34:J49" xr:uid="{5653054A-31BE-44E7-A7E2-3C79ECC9C177}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6260,27 +6304,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49FAA04-E460-4C50-88BA-FFE3A62A878C}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -6302,69 +6342,69 @@
         <v>243</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G1" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1" s="34" t="s">
         <v>376</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="J1" s="55" t="s">
-        <v>360</v>
-      </c>
-      <c r="K1" s="55" t="s">
-        <v>361</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="37">
-        <v>1023129537</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>392</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>113</v>
@@ -6372,58 +6412,58 @@
       <c r="I2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>391</v>
+      <c r="J2" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="R2" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" s="37">
-        <v>1023129537</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>113</v>
@@ -6431,20 +6471,20 @@
       <c r="I3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -6452,25 +6492,25 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" s="37">
-        <v>1023129537</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>113</v>
@@ -6478,29 +6518,28 @@
       <c r="I4" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
-        <v>391</v>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0D31F821-034E-4CCA-9FB1-C50D299862D8}"/>
     <hyperlink ref="B3:B4" r:id="rId2" display="https://test-sakani.housingapps.sa" xr:uid="{58C318F1-18A2-4FBB-9829-9BB592065562}"/>
@@ -8116,20 +8155,20 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="60"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="57"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
